--- a/source_data/Other/simple_4.xlsx
+++ b/source_data/Other/simple_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3402EE4-9B70-7347-9037-6710B4352FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C935E6C-B9C8-3E41-9259-3E4934549EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3800" windowWidth="33260" windowHeight="19480" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3800" windowWidth="33260" windowHeight="19480" firstSheet="4" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="255">
   <si>
     <t>Epoch</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>ICD-10=1</t>
   </si>
 </sst>
 </file>
@@ -950,10 +953,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1765,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1949,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1974,6 +1977,14 @@
       </c>
       <c r="B2" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2104,34 +2115,34 @@
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -2233,16 +2244,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
